--- a/Mifos Automation Excels/Client/4919-DisbursementAfterMaturityDate-CollectUpfrontInterest-MakeRepayment.xlsx
+++ b/Mifos Automation Excels/Client/4919-DisbursementAfterMaturityDate-CollectUpfrontInterest-MakeRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Over Due</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Penalties</t>
-  </si>
-  <si>
-    <t>Overpaid</t>
   </si>
   <si>
     <t>#</t>
@@ -462,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -511,71 +505,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>8500</v>
       </c>
       <c r="B2" s="4">
         <v>8500</v>
       </c>
-      <c r="C2" s="4">
-        <v>8500</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1600</v>
       </c>
       <c r="B3" s="4">
         <v>1600</v>
       </c>
-      <c r="C3" s="4">
-        <v>1600</v>
+      <c r="C3" s="5">
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -586,13 +576,10 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -609,13 +596,10 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -632,22 +616,16 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4">
         <v>1400</v>
       </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,47 +657,47 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
